--- a/Code/Results/Cases/Case_9_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7816515957280501</v>
+        <v>0.7437284379736298</v>
       </c>
       <c r="C2">
-        <v>0.1310551243117573</v>
+        <v>0.1685073460734543</v>
       </c>
       <c r="D2">
-        <v>0.05196100701842354</v>
+        <v>0.05409399365976952</v>
       </c>
       <c r="E2">
-        <v>0.3508575275532451</v>
+        <v>0.3471559552334966</v>
       </c>
       <c r="F2">
-        <v>1.253644956491513</v>
+        <v>0.9940830072189186</v>
       </c>
       <c r="G2">
-        <v>1.2340307900824</v>
+        <v>0.9216537145283326</v>
       </c>
       <c r="H2">
-        <v>0.000620227384805272</v>
+        <v>0.0004088582755557013</v>
       </c>
       <c r="I2">
-        <v>0.005609780058284386</v>
+        <v>0.003667563454114564</v>
       </c>
       <c r="J2">
-        <v>0.8001188162074442</v>
+        <v>0.668360189150107</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2900017788369524</v>
       </c>
       <c r="M2">
-        <v>0.8096731355844895</v>
+        <v>0.2109641038540957</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5630164089245326</v>
+        <v>0.8650650972803362</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5765841283578368</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6795770197060165</v>
+        <v>0.6496035521212775</v>
       </c>
       <c r="C3">
-        <v>0.1171692983820094</v>
+        <v>0.1457668624445603</v>
       </c>
       <c r="D3">
-        <v>0.05037466684076009</v>
+        <v>0.0511265082535779</v>
       </c>
       <c r="E3">
-        <v>0.3051837237102362</v>
+        <v>0.3030142146837491</v>
       </c>
       <c r="F3">
-        <v>1.158466583611045</v>
+        <v>0.9331836334623631</v>
       </c>
       <c r="G3">
-        <v>1.141012318492642</v>
+        <v>0.8701457642090276</v>
       </c>
       <c r="H3">
-        <v>0.001598868888715632</v>
+        <v>0.001184212102249171</v>
       </c>
       <c r="I3">
-        <v>0.008232796169103551</v>
+        <v>0.005412312008677311</v>
       </c>
       <c r="J3">
-        <v>0.7597861508454997</v>
+        <v>0.6424781805579585</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.288818828348667</v>
       </c>
       <c r="M3">
-        <v>0.7053915727678799</v>
+        <v>0.1974921051239384</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4895489404498363</v>
+        <v>0.7529048836709507</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5011597108737362</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6168082279963016</v>
+        <v>0.5915696931213574</v>
       </c>
       <c r="C4">
-        <v>0.1087965706829834</v>
+        <v>0.1321104883249262</v>
       </c>
       <c r="D4">
-        <v>0.04936514366683831</v>
+        <v>0.0493036402496827</v>
       </c>
       <c r="E4">
-        <v>0.2771969305643793</v>
+        <v>0.2759229535365932</v>
       </c>
       <c r="F4">
-        <v>1.10012791753519</v>
+        <v>0.8957165221113854</v>
       </c>
       <c r="G4">
-        <v>1.083807784620419</v>
+        <v>0.8384618258919971</v>
       </c>
       <c r="H4">
-        <v>0.002456935593470044</v>
+        <v>0.001886657088129073</v>
       </c>
       <c r="I4">
-        <v>0.01020758506975206</v>
+        <v>0.006759458692179532</v>
       </c>
       <c r="J4">
-        <v>0.7350291074952651</v>
+        <v>0.6263077678718503</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2877893836496384</v>
       </c>
       <c r="M4">
-        <v>0.6415842639804481</v>
+        <v>0.189818557972103</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4445511163452309</v>
+        <v>0.6842383000164887</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.454945590239717</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5908206078065632</v>
+        <v>0.5675326124604965</v>
       </c>
       <c r="C5">
-        <v>0.1057544636832972</v>
+        <v>0.1270201356487917</v>
       </c>
       <c r="D5">
-        <v>0.04896617248807189</v>
+        <v>0.04860952648143524</v>
       </c>
       <c r="E5">
-        <v>0.2657384259132911</v>
+        <v>0.2648271395504267</v>
       </c>
       <c r="F5">
-        <v>1.074397008743972</v>
+        <v>0.8789043713931548</v>
       </c>
       <c r="G5">
-        <v>1.05819535480623</v>
+        <v>0.8238350137687007</v>
       </c>
       <c r="H5">
-        <v>0.002869982123962833</v>
+        <v>0.002228485971016658</v>
       </c>
       <c r="I5">
-        <v>0.01118801427156679</v>
+        <v>0.007472069319780061</v>
       </c>
       <c r="J5">
-        <v>0.7237767405106723</v>
+        <v>0.6187483718666726</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2867404314214923</v>
       </c>
       <c r="M5">
-        <v>0.6159962200732991</v>
+        <v>0.1864400809302218</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.426323634377745</v>
+        <v>0.6566305525952885</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4362088955221637</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5860397052602764</v>
+        <v>0.5631413684058941</v>
       </c>
       <c r="C6">
-        <v>0.1056642417236233</v>
+        <v>0.1266743685290237</v>
       </c>
       <c r="D6">
-        <v>0.0489262822923564</v>
+        <v>0.04855511659327405</v>
       </c>
       <c r="E6">
-        <v>0.2637592374509623</v>
+        <v>0.2629175426632244</v>
       </c>
       <c r="F6">
-        <v>1.067715405520559</v>
+        <v>0.8742572035483036</v>
       </c>
       <c r="G6">
-        <v>1.051169149502783</v>
+        <v>0.8193388797585754</v>
       </c>
       <c r="H6">
-        <v>0.002944583544540302</v>
+        <v>0.00229022642612442</v>
       </c>
       <c r="I6">
-        <v>0.01147117906013495</v>
+        <v>0.007722104934355656</v>
       </c>
       <c r="J6">
-        <v>0.7204895028183955</v>
+        <v>0.6163912678668595</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2858878124076867</v>
       </c>
       <c r="M6">
-        <v>0.6122018331632688</v>
+        <v>0.1853985888849472</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4234061111413823</v>
+        <v>0.6524566104937293</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4331936222060264</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6151856222344065</v>
+        <v>0.5902635859599741</v>
       </c>
       <c r="C7">
-        <v>0.1098840514824531</v>
+        <v>0.1332074468360531</v>
       </c>
       <c r="D7">
-        <v>0.04943404944472007</v>
+        <v>0.04956351067122</v>
       </c>
       <c r="E7">
-        <v>0.2768310160744534</v>
+        <v>0.2755853266931538</v>
       </c>
       <c r="F7">
-        <v>1.093191273126521</v>
+        <v>0.8875770213720102</v>
       </c>
       <c r="G7">
-        <v>1.075882770136047</v>
+        <v>0.8351579152666488</v>
       </c>
       <c r="H7">
-        <v>0.002468101632246533</v>
+        <v>0.001898092727347089</v>
       </c>
       <c r="I7">
-        <v>0.01051664108044914</v>
+        <v>0.007106812513340444</v>
       </c>
       <c r="J7">
-        <v>0.7310011055463974</v>
+        <v>0.6155323126440635</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2851503717270774</v>
       </c>
       <c r="M7">
-        <v>0.6424759929169426</v>
+        <v>0.187788604467336</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4446008128671792</v>
+        <v>0.6847914910876085</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4549126152525744</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7447640636570156</v>
+        <v>0.7102134252972405</v>
       </c>
       <c r="C8">
-        <v>0.1277397748275604</v>
+        <v>0.1617814152386359</v>
       </c>
       <c r="D8">
-        <v>0.05152556842377365</v>
+        <v>0.05366398301525166</v>
       </c>
       <c r="E8">
-        <v>0.3348088612962812</v>
+        <v>0.3316708940792452</v>
       </c>
       <c r="F8">
-        <v>1.212057481711653</v>
+        <v>0.9570301362365541</v>
       </c>
       <c r="G8">
-        <v>1.191911946423573</v>
+        <v>0.9049858251317175</v>
       </c>
       <c r="H8">
-        <v>0.0009068041224218337</v>
+        <v>0.0006354891152522413</v>
       </c>
       <c r="I8">
-        <v>0.006784644259202999</v>
+        <v>0.004623904120874656</v>
       </c>
       <c r="J8">
-        <v>0.7810793201925605</v>
+        <v>0.6304372834885044</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2848804162580265</v>
       </c>
       <c r="M8">
-        <v>0.7753113335999728</v>
+        <v>0.2021197647027009</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5380507413400082</v>
+        <v>0.8271912776652073</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5507623728647104</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.00074713935885</v>
+        <v>0.9453089955650285</v>
       </c>
       <c r="C9">
-        <v>0.1621277885310803</v>
+        <v>0.218696348504821</v>
       </c>
       <c r="D9">
-        <v>0.05520607287009938</v>
+        <v>0.06101640953659171</v>
       </c>
       <c r="E9">
-        <v>0.4495930769105883</v>
+        <v>0.4422989262958339</v>
       </c>
       <c r="F9">
-        <v>1.458339919661356</v>
+        <v>1.112336875508262</v>
       </c>
       <c r="G9">
-        <v>1.432842972487919</v>
+        <v>1.042699949521307</v>
       </c>
       <c r="H9">
-        <v>3.44739961666285E-05</v>
+        <v>7.378560958892777E-05</v>
       </c>
       <c r="I9">
-        <v>0.002119041200234761</v>
+        <v>0.001558873215040002</v>
       </c>
       <c r="J9">
-        <v>0.886497686611591</v>
+        <v>0.6901548865409239</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2879028491213234</v>
       </c>
       <c r="M9">
-        <v>1.035859863186886</v>
+        <v>0.239893790763908</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7219871995688862</v>
+        <v>1.107132313431435</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7394579830111496</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.19368038881791</v>
+        <v>1.123622474932688</v>
       </c>
       <c r="C10">
-        <v>0.189802057217932</v>
+        <v>0.2617811320119188</v>
       </c>
       <c r="D10">
-        <v>0.05831091894895479</v>
+        <v>0.06833896498232406</v>
       </c>
       <c r="E10">
-        <v>0.5005450479836995</v>
+        <v>0.4904403100953658</v>
       </c>
       <c r="F10">
-        <v>1.605312701108716</v>
+        <v>1.185862372742974</v>
       </c>
       <c r="G10">
-        <v>1.56953421415227</v>
+        <v>1.131904846718712</v>
       </c>
       <c r="H10">
-        <v>0.001015920585442753</v>
+        <v>0.001079070669753435</v>
       </c>
       <c r="I10">
-        <v>0.001015699110637591</v>
+        <v>0.001102463824911304</v>
       </c>
       <c r="J10">
-        <v>0.9437880797592868</v>
+        <v>0.6769628056037362</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2788477384583175</v>
       </c>
       <c r="M10">
-        <v>1.236204010977218</v>
+        <v>0.259678200835701</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8293564470020414</v>
+        <v>1.319319090221683</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8492687123885148</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.327273382210677</v>
+        <v>1.260677610191863</v>
       </c>
       <c r="C11">
-        <v>0.2114381871567019</v>
+        <v>0.2802480902674773</v>
       </c>
       <c r="D11">
-        <v>0.06709861696581854</v>
+        <v>0.08525328279642963</v>
       </c>
       <c r="E11">
-        <v>0.2724171286097672</v>
+        <v>0.2655806378605803</v>
       </c>
       <c r="F11">
-        <v>1.392310468578685</v>
+        <v>1.001367971315375</v>
       </c>
       <c r="G11">
-        <v>1.313262495625168</v>
+        <v>0.9786637682690156</v>
       </c>
       <c r="H11">
-        <v>0.01929804411682667</v>
+        <v>0.01932779348284086</v>
       </c>
       <c r="I11">
-        <v>0.001450262446312856</v>
+        <v>0.001731254837217477</v>
       </c>
       <c r="J11">
-        <v>0.8088809195481304</v>
+        <v>0.5112486008996484</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2248517167891073</v>
       </c>
       <c r="M11">
-        <v>1.38564292735208</v>
+        <v>0.21067831521367</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6424215801652196</v>
+        <v>1.463649267588323</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6578909509162116</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.403968110132183</v>
+        <v>1.343353223714104</v>
       </c>
       <c r="C12">
-        <v>0.2229346819024443</v>
+        <v>0.2852222919315608</v>
       </c>
       <c r="D12">
-        <v>0.07704131185241891</v>
+        <v>0.09999448567437241</v>
       </c>
       <c r="E12">
-        <v>0.1296157961200635</v>
+        <v>0.1255610903581221</v>
       </c>
       <c r="F12">
-        <v>1.204431167494164</v>
+        <v>0.8582531424341653</v>
       </c>
       <c r="G12">
-        <v>1.098886725697525</v>
+        <v>0.8393336091658483</v>
       </c>
       <c r="H12">
-        <v>0.05771944880447677</v>
+        <v>0.05774105440816157</v>
       </c>
       <c r="I12">
-        <v>0.001441637078945845</v>
+        <v>0.001733219528700758</v>
       </c>
       <c r="J12">
-        <v>0.6979147320476216</v>
+        <v>0.4189225039481812</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1906471951068944</v>
       </c>
       <c r="M12">
-        <v>1.470734377019568</v>
+        <v>0.1738323332450769</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4838916735801391</v>
+        <v>1.542037269478584</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4957568478290924</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.438438708819263</v>
+        <v>1.386027506577932</v>
       </c>
       <c r="C13">
-        <v>0.228967201548997</v>
+        <v>0.2828521814855378</v>
       </c>
       <c r="D13">
-        <v>0.08834972506821259</v>
+        <v>0.1127375163253959</v>
       </c>
       <c r="E13">
-        <v>0.04362636191597069</v>
+        <v>0.04208129601979849</v>
       </c>
       <c r="F13">
-        <v>1.014939273749533</v>
+        <v>0.733449690845859</v>
       </c>
       <c r="G13">
-        <v>0.8927329261663886</v>
+        <v>0.6905783690428962</v>
       </c>
       <c r="H13">
-        <v>0.1132451317684513</v>
+        <v>0.1132655699252467</v>
       </c>
       <c r="I13">
-        <v>0.001433165778562007</v>
+        <v>0.00167754211176252</v>
       </c>
       <c r="J13">
-        <v>0.5929132573234455</v>
+        <v>0.3709271571213435</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.166113336299972</v>
       </c>
       <c r="M13">
-        <v>1.512260678773544</v>
+        <v>0.1427834374315005</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3394638555173444</v>
+        <v>1.575711166970393</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3480968633682764</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.443004727798581</v>
+        <v>1.397387561304328</v>
       </c>
       <c r="C14">
-        <v>0.2312189529238395</v>
+        <v>0.2783547077460184</v>
       </c>
       <c r="D14">
-        <v>0.09727690851930504</v>
+        <v>0.1207626414355119</v>
       </c>
       <c r="E14">
-        <v>0.01721031800963058</v>
+        <v>0.01718278790056171</v>
       </c>
       <c r="F14">
-        <v>0.8827084989116543</v>
+        <v>0.6527964407234137</v>
       </c>
       <c r="G14">
-        <v>0.7540179535729834</v>
+        <v>0.5852489003877679</v>
       </c>
       <c r="H14">
-        <v>0.162481607703242</v>
+        <v>0.1624959328227646</v>
       </c>
       <c r="I14">
-        <v>0.001543676591674981</v>
+        <v>0.001730759299283235</v>
       </c>
       <c r="J14">
-        <v>0.5229056951806541</v>
+        <v>0.3517458052880897</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1524803163897666</v>
       </c>
       <c r="M14">
-        <v>1.522075900480814</v>
+        <v>0.1235896560241585</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2487272413966508</v>
+        <v>1.579399150738709</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2552771026907692</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.434083280162611</v>
+        <v>1.390594184830519</v>
       </c>
       <c r="C15">
-        <v>0.2310459010450074</v>
+        <v>0.2762484335010527</v>
       </c>
       <c r="D15">
-        <v>0.0994436968394723</v>
+        <v>0.1220330325359384</v>
       </c>
       <c r="E15">
-        <v>0.01513328928157373</v>
+        <v>0.01547352396302959</v>
       </c>
       <c r="F15">
-        <v>0.8469737794953147</v>
+        <v>0.6334510978776748</v>
       </c>
       <c r="G15">
-        <v>0.7179066270800831</v>
+        <v>0.5561356810539735</v>
       </c>
       <c r="H15">
-        <v>0.1749589017348683</v>
+        <v>0.1749687647289022</v>
       </c>
       <c r="I15">
-        <v>0.001711219053765589</v>
+        <v>0.001884293299378115</v>
       </c>
       <c r="J15">
-        <v>0.5051004866395346</v>
+        <v>0.3517399598853785</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1498847055584243</v>
       </c>
       <c r="M15">
-        <v>1.515198990421169</v>
+        <v>0.1191360902086274</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2270653788474029</v>
+        <v>1.570798177349133</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2331065381102029</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.34138211201747</v>
+        <v>1.301443001685897</v>
       </c>
       <c r="C16">
-        <v>0.2183628413436765</v>
+        <v>0.2608324311632515</v>
       </c>
       <c r="D16">
-        <v>0.09543903643534435</v>
+        <v>0.1129891091598267</v>
       </c>
       <c r="E16">
-        <v>0.01430248592726396</v>
+        <v>0.01499195664963963</v>
       </c>
       <c r="F16">
-        <v>0.822345265647499</v>
+        <v>0.6420211843148564</v>
       </c>
       <c r="G16">
-        <v>0.701290585559974</v>
+        <v>0.5309551477177052</v>
       </c>
       <c r="H16">
-        <v>0.1621192903322282</v>
+        <v>0.1620925372884017</v>
       </c>
       <c r="I16">
-        <v>0.002194372068010431</v>
+        <v>0.002157140500466781</v>
       </c>
       <c r="J16">
-        <v>0.5014388262374894</v>
+        <v>0.398331507524091</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1577785371367888</v>
       </c>
       <c r="M16">
-        <v>1.41915635010173</v>
+        <v>0.1218712486896223</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2156903451362169</v>
+        <v>1.473306763891117</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2215368685709898</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.26808326967199</v>
+        <v>1.227448930239973</v>
       </c>
       <c r="C17">
-        <v>0.2074776585272531</v>
+        <v>0.2511507543766385</v>
       </c>
       <c r="D17">
-        <v>0.08743928347840324</v>
+        <v>0.1025299956851953</v>
       </c>
       <c r="E17">
-        <v>0.02180595625079906</v>
+        <v>0.02205434818974972</v>
       </c>
       <c r="F17">
-        <v>0.8717765137347016</v>
+        <v>0.6892284539152769</v>
       </c>
       <c r="G17">
-        <v>0.7595918767992202</v>
+        <v>0.5671664489179307</v>
       </c>
       <c r="H17">
-        <v>0.1243036595880227</v>
+        <v>0.1242509055700367</v>
       </c>
       <c r="I17">
-        <v>0.002580993597202763</v>
+        <v>0.002401573782595534</v>
       </c>
       <c r="J17">
-        <v>0.5346447033824973</v>
+        <v>0.444024828982478</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1715031475743132</v>
       </c>
       <c r="M17">
-        <v>1.340604816449286</v>
+        <v>0.1332898559782159</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.252266551361334</v>
+        <v>1.396552962333686</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2590330499570648</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.205107153070855</v>
+        <v>1.159883537023774</v>
       </c>
       <c r="C18">
-        <v>0.1960775359380591</v>
+        <v>0.244500161143776</v>
       </c>
       <c r="D18">
-        <v>0.07630428541471446</v>
+        <v>0.08976946517825724</v>
       </c>
       <c r="E18">
-        <v>0.06635633565346666</v>
+        <v>0.06522416188875724</v>
       </c>
       <c r="F18">
-        <v>1.001488707372886</v>
+        <v>0.7875325024548232</v>
       </c>
       <c r="G18">
-        <v>0.9033583557090452</v>
+        <v>0.6652667187525196</v>
       </c>
       <c r="H18">
-        <v>0.07142822563545792</v>
+        <v>0.07138209780320892</v>
       </c>
       <c r="I18">
-        <v>0.002480673635825603</v>
+        <v>0.002205163605261795</v>
       </c>
       <c r="J18">
-        <v>0.6103880818693455</v>
+        <v>0.5074267685823344</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1955556741742726</v>
       </c>
       <c r="M18">
-        <v>1.268019707101615</v>
+        <v>0.1569694008681033</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3454406867542517</v>
+        <v>1.329089680502733</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3544866605415038</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.153426027702807</v>
+        <v>1.101398913813227</v>
       </c>
       <c r="C19">
-        <v>0.1883277552696683</v>
+        <v>0.2439815371112815</v>
       </c>
       <c r="D19">
-        <v>0.06627749465973665</v>
+        <v>0.07797821344794897</v>
       </c>
       <c r="E19">
-        <v>0.1813382299536528</v>
+        <v>0.177773497677201</v>
       </c>
       <c r="F19">
-        <v>1.187907245771882</v>
+        <v>0.9213063341092891</v>
       </c>
       <c r="G19">
-        <v>1.110811098667824</v>
+        <v>0.8070283919973065</v>
       </c>
       <c r="H19">
-        <v>0.02616308936431722</v>
+        <v>0.02616021124998724</v>
       </c>
       <c r="I19">
-        <v>0.002498713099237548</v>
+        <v>0.002299053722071953</v>
       </c>
       <c r="J19">
-        <v>0.7170178385589878</v>
+        <v>0.584719988837449</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2271606670932442</v>
       </c>
       <c r="M19">
-        <v>1.209729301043382</v>
+        <v>0.1899070983361035</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4957886835437648</v>
+        <v>1.277705478263528</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5083420168304897</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.139034611428116</v>
+        <v>1.073209004108975</v>
       </c>
       <c r="C20">
-        <v>0.1861705018119437</v>
+        <v>0.2556484029260133</v>
       </c>
       <c r="D20">
-        <v>0.05783635528925402</v>
+        <v>0.06665963338676306</v>
       </c>
       <c r="E20">
-        <v>0.4849989752759427</v>
+        <v>0.4757925161818619</v>
       </c>
       <c r="F20">
-        <v>1.544740187803797</v>
+        <v>1.160355185158451</v>
       </c>
       <c r="G20">
-        <v>1.508487546043341</v>
+        <v>1.080908470256489</v>
       </c>
       <c r="H20">
-        <v>0.0006285421487577381</v>
+        <v>0.0007046373371606407</v>
       </c>
       <c r="I20">
-        <v>0.00196701933174559</v>
+        <v>0.002071286052025556</v>
       </c>
       <c r="J20">
-        <v>0.9159742028828646</v>
+        <v>0.6971616381711812</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.278883798557338</v>
       </c>
       <c r="M20">
-        <v>1.187610092759314</v>
+        <v>0.2518225435559316</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.800820169883913</v>
+        <v>1.267990908665183</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8201247143000785</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.279946450001177</v>
+        <v>1.20292338032931</v>
       </c>
       <c r="C21">
-        <v>0.2060275688399997</v>
+        <v>0.2848536945019617</v>
       </c>
       <c r="D21">
-        <v>0.0592949664894391</v>
+        <v>0.07311874772216953</v>
       </c>
       <c r="E21">
-        <v>0.5772478438101061</v>
+        <v>0.5648218797418281</v>
       </c>
       <c r="F21">
-        <v>1.712583781797491</v>
+        <v>1.202578398382045</v>
       </c>
       <c r="G21">
-        <v>1.676172669159513</v>
+        <v>1.243800976487108</v>
       </c>
       <c r="H21">
-        <v>0.001851681990013621</v>
+        <v>0.001838595106208984</v>
       </c>
       <c r="I21">
-        <v>0.001673492458165171</v>
+        <v>0.002053466612262689</v>
       </c>
       <c r="J21">
-        <v>0.9917078415972185</v>
+        <v>0.5813029379367975</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2694743768050216</v>
       </c>
       <c r="M21">
-        <v>1.331984656583074</v>
+        <v>0.264405649597137</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9285790257786601</v>
+        <v>1.418864367617715</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9498092253140982</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.376683727284359</v>
+        <v>1.292545731963713</v>
       </c>
       <c r="C22">
-        <v>0.2181329585970389</v>
+        <v>0.3020262879624767</v>
       </c>
       <c r="D22">
-        <v>0.06037007210978729</v>
+        <v>0.07802254521818242</v>
       </c>
       <c r="E22">
-        <v>0.6207785675717332</v>
+        <v>0.6064208803921076</v>
       </c>
       <c r="F22">
-        <v>1.815091065342955</v>
+        <v>1.220986224878416</v>
       </c>
       <c r="G22">
-        <v>1.777234840871557</v>
+        <v>1.352020733458801</v>
       </c>
       <c r="H22">
-        <v>0.003041923970709792</v>
+        <v>0.002902074719980385</v>
       </c>
       <c r="I22">
-        <v>0.001676447971464157</v>
+        <v>0.001998658499370087</v>
       </c>
       <c r="J22">
-        <v>1.03692287714523</v>
+        <v>0.5044962820286827</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2616629793674718</v>
       </c>
       <c r="M22">
-        <v>1.428486957330762</v>
+        <v>0.2707182293834265</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9972601357897517</v>
+        <v>1.518848922142752</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.019332379251402</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.326618301998224</v>
+        <v>1.245750679493511</v>
       </c>
       <c r="C23">
-        <v>0.2102417581497633</v>
+        <v>0.2916390079714262</v>
       </c>
       <c r="D23">
-        <v>0.05968495560686904</v>
+        <v>0.07471430422418734</v>
       </c>
       <c r="E23">
-        <v>0.5977904095394777</v>
+        <v>0.5844280058074887</v>
       </c>
       <c r="F23">
-        <v>1.768140492896237</v>
+        <v>1.223955289396557</v>
       </c>
       <c r="G23">
-        <v>1.73224864208342</v>
+        <v>1.293178395782178</v>
       </c>
       <c r="H23">
-        <v>0.002377808789808533</v>
+        <v>0.002315712163708517</v>
       </c>
       <c r="I23">
-        <v>0.001326552617449295</v>
+        <v>0.001635127482905396</v>
       </c>
       <c r="J23">
-        <v>1.017319779936628</v>
+        <v>0.5626273198554799</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2689219442378601</v>
       </c>
       <c r="M23">
-        <v>1.375426178459293</v>
+        <v>0.271051806878134</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9602112683187016</v>
+        <v>1.464608553615619</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9820045007813292</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.134964888346104</v>
+        <v>1.068191875165553</v>
       </c>
       <c r="C24">
-        <v>0.1831448042782711</v>
+        <v>0.2526462153654876</v>
       </c>
       <c r="D24">
-        <v>0.05721074042872942</v>
+        <v>0.0653656905187745</v>
       </c>
       <c r="E24">
-        <v>0.5108502815041618</v>
+        <v>0.501194545816702</v>
       </c>
       <c r="F24">
-        <v>1.579440161889892</v>
+        <v>1.185688947263174</v>
       </c>
       <c r="G24">
-        <v>1.548750192087596</v>
+        <v>1.108556474562022</v>
       </c>
       <c r="H24">
-        <v>0.000576720916146467</v>
+        <v>0.0006553598388796544</v>
       </c>
       <c r="I24">
-        <v>0.001453608926349048</v>
+        <v>0.001466384182439384</v>
       </c>
       <c r="J24">
-        <v>0.9364777694362374</v>
+        <v>0.7127688088660449</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2858420925699008</v>
       </c>
       <c r="M24">
-        <v>1.178131331411521</v>
+        <v>0.2590231566106169</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8212351376663776</v>
+        <v>1.25925869805323</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8410607958544887</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9291217750966041</v>
+        <v>0.8797097096525306</v>
       </c>
       <c r="C25">
-        <v>0.1547433116023029</v>
+        <v>0.2058621753539143</v>
       </c>
       <c r="D25">
-        <v>0.05439656078748101</v>
+        <v>0.05921893986410964</v>
       </c>
       <c r="E25">
-        <v>0.4180286541527281</v>
+        <v>0.4119742876836554</v>
       </c>
       <c r="F25">
-        <v>1.37952859068929</v>
+        <v>1.065363650806418</v>
       </c>
       <c r="G25">
-        <v>1.35385636803494</v>
+        <v>0.9916733677053458</v>
       </c>
       <c r="H25">
-        <v>1.371638266345343E-05</v>
+        <v>1.198882313424576E-07</v>
       </c>
       <c r="I25">
-        <v>0.003489948241228724</v>
+        <v>0.002654704976999156</v>
       </c>
       <c r="J25">
-        <v>0.8509254947025795</v>
+        <v>0.6797483238347866</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2855578470179836</v>
       </c>
       <c r="M25">
-        <v>0.9673182032472027</v>
+        <v>0.2274060685515842</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6725885174130681</v>
+        <v>1.033465013524818</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.6887905698345733</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
